--- a/natmiOut/OldD0/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H2">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I2">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J2">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>5384.356407143698</v>
+        <v>33098.79550173788</v>
       </c>
       <c r="R2">
-        <v>5384.356407143698</v>
+        <v>297889.1595156409</v>
       </c>
       <c r="S2">
-        <v>0.2635591517888271</v>
+        <v>0.3139736049548815</v>
       </c>
       <c r="T2">
-        <v>0.2635591517888271</v>
+        <v>0.3139736049548815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H3">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I3">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J3">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>5166.015944601563</v>
+        <v>28725.61353195791</v>
       </c>
       <c r="R3">
-        <v>5166.015944601563</v>
+        <v>258530.5217876212</v>
       </c>
       <c r="S3">
-        <v>0.2528715927274625</v>
+        <v>0.2724898081169145</v>
       </c>
       <c r="T3">
-        <v>0.2528715927274625</v>
+        <v>0.2724898081169145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H4">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I4">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J4">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>7145.176645664763</v>
+        <v>40163.46881411662</v>
       </c>
       <c r="R4">
-        <v>7145.176645664763</v>
+        <v>361471.2193270496</v>
       </c>
       <c r="S4">
-        <v>0.3497496364865884</v>
+        <v>0.3809887610683307</v>
       </c>
       <c r="T4">
-        <v>0.3497496364865884</v>
+        <v>0.3809887610683306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H5">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J5">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>644.1313789095428</v>
+        <v>902.9633000275568</v>
       </c>
       <c r="R5">
-        <v>644.1313789095428</v>
+        <v>8126.66970024801</v>
       </c>
       <c r="S5">
-        <v>0.03152962156084775</v>
+        <v>0.008565467055643232</v>
       </c>
       <c r="T5">
-        <v>0.03152962156084775</v>
+        <v>0.00856546705564323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H6">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J6">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>618.0112760459177</v>
+        <v>783.6591754153424</v>
       </c>
       <c r="R6">
-        <v>618.0112760459177</v>
+        <v>7052.932578738081</v>
       </c>
       <c r="S6">
-        <v>0.03025106723887896</v>
+        <v>0.007433753785638691</v>
       </c>
       <c r="T6">
-        <v>0.03025106723887896</v>
+        <v>0.007433753785638688</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H7">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J7">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>854.7785728333337</v>
+        <v>1095.693598247236</v>
       </c>
       <c r="R7">
-        <v>854.7785728333337</v>
+        <v>9861.242384225121</v>
       </c>
       <c r="S7">
-        <v>0.04184060240223342</v>
+        <v>0.01039369752744045</v>
       </c>
       <c r="T7">
-        <v>0.04184060240223342</v>
+        <v>0.01039369752744045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H8">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J8">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>187.7190517299028</v>
+        <v>210.5737418625243</v>
       </c>
       <c r="R8">
-        <v>187.7190517299028</v>
+        <v>1895.163676762719</v>
       </c>
       <c r="S8">
-        <v>0.00918866997416721</v>
+        <v>0.00199749253225677</v>
       </c>
       <c r="T8">
-        <v>0.00918866997416721</v>
+        <v>0.00199749253225677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H9">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J9">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>180.1068764793383</v>
+        <v>182.7516632260391</v>
       </c>
       <c r="R9">
-        <v>180.1068764793383</v>
+        <v>1644.764969034352</v>
       </c>
       <c r="S9">
-        <v>0.008816061197815615</v>
+        <v>0.001733573613322793</v>
       </c>
       <c r="T9">
-        <v>0.008816061197815615</v>
+        <v>0.001733573613322792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H10">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J10">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>249.1079124307755</v>
+        <v>255.5190237639698</v>
       </c>
       <c r="R10">
-        <v>249.1079124307755</v>
+        <v>2299.671213875728</v>
       </c>
       <c r="S10">
-        <v>0.01219359662317918</v>
+        <v>0.00242384134557142</v>
       </c>
       <c r="T10">
-        <v>0.01219359662317918</v>
+        <v>0.00242384134557142</v>
       </c>
     </row>
   </sheetData>
